--- a/doc/接口文档/更新说明.xlsx
+++ b/doc/接口文档/更新说明.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>更新时间</t>
   </si>
@@ -58,6 +58,18 @@
   </si>
   <si>
     <t>获取客户详情</t>
+  </si>
+  <si>
+    <t>青麦角色接口</t>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>所有接口</t>
+  </si>
+  <si>
+    <t>添加角色代码参数</t>
   </si>
 </sst>
 </file>
@@ -65,12 +77,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,15 +113,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,38 +212,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,78 +241,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,19 +275,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,73 +431,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,85 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,21 +473,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -499,6 +483,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,11 +511,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,152 +565,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -727,19 +726,13 @@
     <xf numFmtId="31" fontId="3" fillId="3" borderId="0" xfId="35" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="39" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="2" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1090,13 +1083,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="24.375" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
@@ -1162,7 +1155,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="8"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1178,7 +1171,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1190,6 +1183,26 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3">
+        <v>43000</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>10</v>
       </c>
     </row>
